--- a/Python/Results Summary/Results_EI_NegativeNEin2030_-724_TrueREFERENCElTrans.xlsx
+++ b/Python/Results Summary/Results_EI_NegativeNEin2030_-724_TrueREFERENCElTrans.xlsx
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>38134.75520769956</v>
+        <v>44840.77154227098</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>171711.072320768</v>
+        <v>174089.4392337858</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>209845.8275284675</v>
+        <v>218930.2107760568</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>14329.02755517305</v>
+        <v>13257.94907356279</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>367261.3843315517</v>
+        <v>484382.6994216205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>381590.4118867248</v>
+        <v>497640.6484951833</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>52463.78276287261</v>
+        <v>58098.72061583377</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>538972.4566523198</v>
+        <v>658472.1386554063</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>591436.2394151924</v>
+        <v>716570.8592712401</v>
       </c>
     </row>
   </sheetData>
@@ -586,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>545.7647935000091</v>
+        <v>2067.673007941711</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>545.7647935000091</v>
+        <v>2067.673007941711</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>37299.06226722143</v>
+        <v>65114.46472844173</v>
       </c>
       <c r="E4">
-        <v>37299.06226722143</v>
+        <v>65114.46472844173</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4209.697228728495</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4209.697228728495</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -637,16 +637,16 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>133834.171804337</v>
+        <v>126156.0186917315</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>764716.9214832925</v>
+        <v>945719.1076536712</v>
       </c>
       <c r="E6">
-        <v>898551.0932876295</v>
+        <v>1071875.126345403</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>536355.2952716402</v>
+        <v>403907.7975412807</v>
       </c>
       <c r="E7">
-        <v>536355.2952716402</v>
+        <v>403907.7975412807</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>180074.3928636961</v>
+        <v>134600.0228746693</v>
       </c>
       <c r="E8">
-        <v>180074.3928636961</v>
+        <v>134600.0228746693</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>27924.94135523968</v>
+        <v>150711.5327432124</v>
       </c>
       <c r="E9">
-        <v>27924.94135523968</v>
+        <v>150711.5327432124</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-157043.3457209934</v>
+        <v>-159446.5465953024</v>
       </c>
       <c r="E10">
-        <v>-157043.3457209934</v>
+        <v>-159446.5465953024</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +749,7 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>26611.65864052888</v>
+        <v>24520.37567040532</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26611.65864052888</v>
+        <v>24520.37567040532</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -766,16 +766,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>36150.89169889248</v>
+        <v>58308.276390776</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11899.58315014103</v>
+        <v>5013.064144099681</v>
       </c>
       <c r="E3">
-        <v>48050.4748490335</v>
+        <v>63321.34053487568</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -800,16 +800,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>26500.02619073923</v>
+        <v>34729.98443217963</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>24931.99535072285</v>
+        <v>29546.61151813603</v>
       </c>
       <c r="E5">
-        <v>51432.02154146208</v>
+        <v>64276.59595031566</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14108.91209222606</v>
+        <v>14565.46327241863</v>
       </c>
       <c r="E6">
-        <v>14108.91209222606</v>
+        <v>14565.46327241863</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -851,16 +851,16 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>0.37098</v>
+        <v>0.5232599999999993</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4957200000000001</v>
+        <v>0.9889199999999994</v>
       </c>
       <c r="E8">
-        <v>0.8667000000000001</v>
+        <v>1.512179999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -902,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>140.0367850387402</v>
+        <v>269.0762279868579</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.51573226290356</v>
+        <v>0.5930964000000001</v>
       </c>
       <c r="E11">
-        <v>159.5525173016438</v>
+        <v>269.6693243868579</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -919,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>1235.607194387937</v>
+        <v>1550.606857215335</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>23.5496645</v>
+        <v>0.7865550000000001</v>
       </c>
       <c r="E12">
-        <v>1259.156858887937</v>
+        <v>1551.393412215335</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -936,16 +936,16 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>744.414592345884</v>
+        <v>974.5691644366885</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>43.3572</v>
+        <v>19.32360000000002</v>
       </c>
       <c r="E13">
-        <v>787.771792345884</v>
+        <v>993.8927644366886</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>170.1050623676707</v>
+        <v>841.6380271906449</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>170.1050623676707</v>
+        <v>841.6380271906449</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9513.438180608011</v>
+        <v>15790.76054710625</v>
       </c>
       <c r="E4">
-        <v>9513.438180608011</v>
+        <v>15790.76054710625</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1709.882371389564</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1709.882371389564</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>15855.90521403419</v>
+        <v>14309.23473678639</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>70794.1466282452</v>
+        <v>130024.1994959887</v>
       </c>
       <c r="E6">
-        <v>86650.0518422794</v>
+        <v>144333.4342327751</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>29893.69500251932</v>
+        <v>28923.89424753521</v>
       </c>
       <c r="E7">
-        <v>29893.69500251932</v>
+        <v>28923.89424753521</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7861.448650811973</v>
+        <v>9066.806824807039</v>
       </c>
       <c r="E8">
-        <v>7861.448650811973</v>
+        <v>9066.806824807039</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5283.014175226191</v>
+        <v>23400.90356986589</v>
       </c>
       <c r="E9">
-        <v>5283.014175226191</v>
+        <v>23400.90356986589</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1122,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-32933.02270619398</v>
+        <v>-62596.94865498167</v>
       </c>
       <c r="E10">
-        <v>-32933.02270619398</v>
+        <v>-62596.94865498167</v>
       </c>
     </row>
   </sheetData>
